--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.0749131495152</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H2">
-        <v>31.0749131495152</v>
+        <v>119.006023</v>
       </c>
       <c r="I2">
-        <v>0.1271467007244361</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J2">
-        <v>0.1271467007244361</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.8003696882374</v>
+        <v>0.1028113333333333</v>
       </c>
       <c r="N2">
-        <v>1.8003696882374</v>
+        <v>0.308434</v>
       </c>
       <c r="O2">
-        <v>0.5694553849046251</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="P2">
-        <v>0.5694553849046251</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="Q2">
-        <v>55.94633169899696</v>
+        <v>4.078389299775778</v>
       </c>
       <c r="R2">
-        <v>55.94633169899696</v>
+        <v>36.705503697982</v>
       </c>
       <c r="S2">
-        <v>0.07240437340038691</v>
+        <v>0.004580506352777412</v>
       </c>
       <c r="T2">
-        <v>0.07240437340038691</v>
+        <v>0.004580506352777411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.0749131495152</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H3">
-        <v>31.0749131495152</v>
+        <v>119.006023</v>
       </c>
       <c r="I3">
-        <v>0.1271467007244361</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J3">
-        <v>0.1271467007244361</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.36119438853208</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N3">
-        <v>1.36119438853208</v>
+        <v>5.479898</v>
       </c>
       <c r="O3">
-        <v>0.4305446150953749</v>
+        <v>0.5264858032574322</v>
       </c>
       <c r="P3">
-        <v>0.4305446150953749</v>
+        <v>0.5264858032574322</v>
       </c>
       <c r="Q3">
-        <v>42.29899740324184</v>
+        <v>72.46009638062823</v>
       </c>
       <c r="R3">
-        <v>42.29899740324184</v>
+        <v>652.1408674256541</v>
       </c>
       <c r="S3">
-        <v>0.05474232732404915</v>
+        <v>0.08138113049006349</v>
       </c>
       <c r="T3">
-        <v>0.05474232732404915</v>
+        <v>0.08138113049006347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.3664868297807</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H4">
-        <v>57.3664868297807</v>
+        <v>119.006023</v>
       </c>
       <c r="I4">
-        <v>0.2347217994613196</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J4">
-        <v>0.2347217994613196</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.8003696882374</v>
+        <v>1.540037333333333</v>
       </c>
       <c r="N4">
-        <v>1.8003696882374</v>
+        <v>4.620112</v>
       </c>
       <c r="O4">
-        <v>0.5694553849046251</v>
+        <v>0.4438811411196524</v>
       </c>
       <c r="P4">
-        <v>0.5694553849046251</v>
+        <v>0.4438811411196525</v>
       </c>
       <c r="Q4">
-        <v>103.2808840090072</v>
+        <v>61.09123943717511</v>
       </c>
       <c r="R4">
-        <v>103.2808840090072</v>
+        <v>549.8211549345759</v>
       </c>
       <c r="S4">
-        <v>0.133663592657752</v>
+        <v>0.06861257956821606</v>
       </c>
       <c r="T4">
-        <v>0.133663592657752</v>
+        <v>0.06861257956821606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.3664868297807</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H5">
-        <v>57.3664868297807</v>
+        <v>172.981738</v>
       </c>
       <c r="I5">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J5">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.36119438853208</v>
+        <v>0.1028113333333333</v>
       </c>
       <c r="N5">
-        <v>1.36119438853208</v>
+        <v>0.308434</v>
       </c>
       <c r="O5">
-        <v>0.4305446150953749</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="P5">
-        <v>0.4305446150953749</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="Q5">
-        <v>78.08693996249696</v>
+        <v>5.928161042032443</v>
       </c>
       <c r="R5">
-        <v>78.08693996249696</v>
+        <v>53.35344937829199</v>
       </c>
       <c r="S5">
-        <v>0.1010582068035676</v>
+        <v>0.006658015534419444</v>
       </c>
       <c r="T5">
-        <v>0.1010582068035676</v>
+        <v>0.006658015534419444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.7378119114083</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H6">
-        <v>61.7378119114083</v>
+        <v>172.981738</v>
       </c>
       <c r="I6">
-        <v>0.2526075956097666</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J6">
-        <v>0.2526075956097666</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.8003696882374</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N6">
-        <v>1.8003696882374</v>
+        <v>5.479898</v>
       </c>
       <c r="O6">
-        <v>0.5694553849046251</v>
+        <v>0.5264858032574322</v>
       </c>
       <c r="P6">
-        <v>0.5694553849046251</v>
+        <v>0.5264858032574322</v>
       </c>
       <c r="Q6">
-        <v>111.1508851834014</v>
+        <v>105.3246977891915</v>
       </c>
       <c r="R6">
-        <v>111.1508851834014</v>
+        <v>947.9222801027239</v>
       </c>
       <c r="S6">
-        <v>0.1438487555877916</v>
+        <v>0.118291906894292</v>
       </c>
       <c r="T6">
-        <v>0.1438487555877916</v>
+        <v>0.118291906894292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.7378119114083</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H7">
-        <v>61.7378119114083</v>
+        <v>172.981738</v>
       </c>
       <c r="I7">
-        <v>0.2526075956097666</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J7">
-        <v>0.2526075956097666</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.36119438853208</v>
+        <v>1.540037333333333</v>
       </c>
       <c r="N7">
-        <v>1.36119438853208</v>
+        <v>4.620112</v>
       </c>
       <c r="O7">
-        <v>0.4305446150953749</v>
+        <v>0.4438811411196524</v>
       </c>
       <c r="P7">
-        <v>0.4305446150953749</v>
+        <v>0.4438811411196525</v>
       </c>
       <c r="Q7">
-        <v>84.03716313405799</v>
+        <v>88.79944483496176</v>
       </c>
       <c r="R7">
-        <v>84.03716313405799</v>
+        <v>799.1950035146558</v>
       </c>
       <c r="S7">
-        <v>0.1087588400219751</v>
+        <v>0.09973212248571067</v>
       </c>
       <c r="T7">
-        <v>0.1087588400219751</v>
+        <v>0.09973212248571067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.2228289995552</v>
+        <v>64.993678</v>
       </c>
       <c r="H8">
-        <v>94.2228289995552</v>
+        <v>194.981034</v>
       </c>
       <c r="I8">
-        <v>0.3855239042044777</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="J8">
-        <v>0.3855239042044777</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.8003696882374</v>
+        <v>0.1028113333333333</v>
       </c>
       <c r="N8">
-        <v>1.8003696882374</v>
+        <v>0.308434</v>
       </c>
       <c r="O8">
-        <v>0.5694553849046251</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="P8">
-        <v>0.5694553849046251</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="Q8">
-        <v>169.6359252707751</v>
+        <v>6.682086693417333</v>
       </c>
       <c r="R8">
-        <v>169.6359252707751</v>
+        <v>60.13878024075601</v>
       </c>
       <c r="S8">
-        <v>0.2195386632586946</v>
+        <v>0.007504761880061385</v>
       </c>
       <c r="T8">
-        <v>0.2195386632586946</v>
+        <v>0.007504761880061386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>64.993678</v>
+      </c>
+      <c r="H9">
+        <v>194.981034</v>
+      </c>
+      <c r="I9">
+        <v>0.2532564301015895</v>
+      </c>
+      <c r="J9">
+        <v>0.2532564301015895</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.826632666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.479898</v>
+      </c>
+      <c r="O9">
+        <v>0.5264858032574322</v>
+      </c>
+      <c r="P9">
+        <v>0.5264858032574322</v>
+      </c>
+      <c r="Q9">
+        <v>118.7195753616147</v>
+      </c>
+      <c r="R9">
+        <v>1068.476178254532</v>
+      </c>
+      <c r="S9">
+        <v>0.1333359150321451</v>
+      </c>
+      <c r="T9">
+        <v>0.1333359150321451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>94.2228289995552</v>
-      </c>
-      <c r="H9">
-        <v>94.2228289995552</v>
-      </c>
-      <c r="I9">
-        <v>0.3855239042044777</v>
-      </c>
-      <c r="J9">
-        <v>0.3855239042044777</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.36119438853208</v>
-      </c>
-      <c r="N9">
-        <v>1.36119438853208</v>
-      </c>
-      <c r="O9">
-        <v>0.4305446150953749</v>
-      </c>
-      <c r="P9">
-        <v>0.4305446150953749</v>
-      </c>
-      <c r="Q9">
-        <v>128.2555861058123</v>
-      </c>
-      <c r="R9">
-        <v>128.2555861058123</v>
-      </c>
-      <c r="S9">
-        <v>0.165985240945783</v>
-      </c>
-      <c r="T9">
-        <v>0.165985240945783</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>64.993678</v>
+      </c>
+      <c r="H10">
+        <v>194.981034</v>
+      </c>
+      <c r="I10">
+        <v>0.2532564301015895</v>
+      </c>
+      <c r="J10">
+        <v>0.2532564301015895</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.540037333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.620112</v>
+      </c>
+      <c r="O10">
+        <v>0.4438811411196524</v>
+      </c>
+      <c r="P10">
+        <v>0.4438811411196525</v>
+      </c>
+      <c r="Q10">
+        <v>100.0926905506453</v>
+      </c>
+      <c r="R10">
+        <v>900.8342149558081</v>
+      </c>
+      <c r="S10">
+        <v>0.112415753189383</v>
+      </c>
+      <c r="T10">
+        <v>0.1124157531893831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>94.308965</v>
+      </c>
+      <c r="H11">
+        <v>282.926895</v>
+      </c>
+      <c r="I11">
+        <v>0.3674873085729315</v>
+      </c>
+      <c r="J11">
+        <v>0.3674873085729314</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1028113333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.308434</v>
+      </c>
+      <c r="O11">
+        <v>0.02963305562291539</v>
+      </c>
+      <c r="P11">
+        <v>0.02963305562291539</v>
+      </c>
+      <c r="Q11">
+        <v>9.696030436936665</v>
+      </c>
+      <c r="R11">
+        <v>87.26427393243</v>
+      </c>
+      <c r="S11">
+        <v>0.01088977185565715</v>
+      </c>
+      <c r="T11">
+        <v>0.01088977185565715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>94.308965</v>
+      </c>
+      <c r="H12">
+        <v>282.926895</v>
+      </c>
+      <c r="I12">
+        <v>0.3674873085729315</v>
+      </c>
+      <c r="J12">
+        <v>0.3674873085729314</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.826632666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.479898</v>
+      </c>
+      <c r="O12">
+        <v>0.5264858032574322</v>
+      </c>
+      <c r="P12">
+        <v>0.5264858032574322</v>
+      </c>
+      <c r="Q12">
+        <v>172.2678362285234</v>
+      </c>
+      <c r="R12">
+        <v>1550.41052605671</v>
+      </c>
+      <c r="S12">
+        <v>0.1934768508409317</v>
+      </c>
+      <c r="T12">
+        <v>0.1934768508409317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>94.308965</v>
+      </c>
+      <c r="H13">
+        <v>282.926895</v>
+      </c>
+      <c r="I13">
+        <v>0.3674873085729315</v>
+      </c>
+      <c r="J13">
+        <v>0.3674873085729314</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.540037333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.620112</v>
+      </c>
+      <c r="O13">
+        <v>0.4438811411196524</v>
+      </c>
+      <c r="P13">
+        <v>0.4438811411196525</v>
+      </c>
+      <c r="Q13">
+        <v>145.2393269680267</v>
+      </c>
+      <c r="R13">
+        <v>1307.15394271224</v>
+      </c>
+      <c r="S13">
+        <v>0.1631206858763427</v>
+      </c>
+      <c r="T13">
+        <v>0.1631206858763427</v>
       </c>
     </row>
   </sheetData>
